--- a/analysis/kg_embeddings/training_results.xlsx
+++ b/analysis/kg_embeddings/training_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t xml:space="preserve">Method</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">DistMult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">RESCAL</t>
@@ -86,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -107,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,13 +249,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
@@ -327,43 +332,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>400</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0.382508389385846</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>1234.50632150342</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0.313697735939808</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0.408898203181365</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0.515772838148899</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>400</v>
@@ -381,95 +364,177 @@
         <v>10000</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.606150701555503</v>
+        <v>0.382508389385846</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>259.194654206892</v>
+        <v>1234.50632150342</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.552217679595973</v>
+        <v>0.313697735939808</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.626014360806679</v>
+        <v>0.408898203181365</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.711375270553475</v>
+        <v>0.515772838148899</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="5" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0.37406821739532</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>1280.34065688666</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.304469715188786</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.401865530628371</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0.50805304565912</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="n">
+        <v>800</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0.379194783458312</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>1264.13580238431</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0.311643247328821</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.404792661559075</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0.509052805167142</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0.361973664078027</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>1306.64478991308</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.295008073659257</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0.386735149620366</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>0.491180815611365</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0.261309380127898</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>2397.61815714433</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0.204260143608067</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0.278963823135328</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>0.373092383275501</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="n">
+        <v>0.374436163151206</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>1143.14465936029</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0.304359775998901</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0.399718280825918</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>0.512065826089944</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="n">
+        <v>0.380324468704147</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>1197.24188339575</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0.310234651458412</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.407520527708111</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>0.516102655718556</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -477,35 +542,123 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>0.606150701555503</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>259.194654206892</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0.552217679595973</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0.626014360806679</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0.711375270553475</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0.57193614209275</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>337.645130037448</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0.512673927233999</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0.593396777407497</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0.692561926684303</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="n">
+        <v>800</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0.53491064279746</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>429.478816092349</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0.473425636444841</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0.555972790050503</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0.665279829594256</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -513,26 +666,62 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="n">
+        <v>0.63706122350955</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>184.08499673618</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>0.58646717284502</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0.65513793932731</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0.736307417459718</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="n">
+        <v>0.615577366538074</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>213.437695399732</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0.561425086748892</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0.63500532517951</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0.722702442711375</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -540,13 +729,39 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0.261309380127898</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>2397.61815714433</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0.204260143608067</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0.278963823135328</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0.373092383275501</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
@@ -560,14 +775,146 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
